--- a/Excel/7장(연습).xlsx
+++ b/Excel/7장(연습).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A223D8A-9247-4470-8EF5-98820191C03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBC728-AC7F-439D-A31B-667ACFBA2017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2430" windowWidth="16245" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="2430" windowWidth="16245" windowHeight="12795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="배송" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,11 @@
   <definedNames>
     <definedName name="검색범위">배송!$B$2:$I$12</definedName>
     <definedName name="단가표">조견표!$E$2:$H$3</definedName>
+    <definedName name="데이터목록">매출!$A$2:$D$50</definedName>
     <definedName name="배송번호목록">배송!$B$2:$B$12</definedName>
     <definedName name="사은품">조견표!$E$6:$H$7</definedName>
-    <definedName name="필드목록">배송!$A$2:$I$2</definedName>
+    <definedName name="조건식">매출!$F$6:$G$7</definedName>
+    <definedName name="필드목록">배송!$B$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>상품 배송 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +214,22 @@
   </si>
   <si>
     <t>상환기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,6 +609,15 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,15 +646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,16 +950,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -976,11 +994,11 @@
         <v>3</v>
       </c>
       <c r="J2" s="25"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1006,11 +1024,11 @@
         <v>3000</v>
       </c>
       <c r="G3" s="13">
-        <f>HLOOKUP(C3,단가표,2,FALSE)</f>
+        <f t="shared" ref="G3:G12" si="0">HLOOKUP(C3,단가표,2,FALSE)</f>
         <v>65000</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>HLOOKUP(G3,사은품,2)</f>
+        <f t="shared" ref="H3:H12" si="1">HLOOKUP(G3,사은품,2)</f>
         <v>영화할인권</v>
       </c>
       <c r="I3" s="1" t="str">
@@ -1029,7 +1047,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A12" si="2">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1039,11 +1057,11 @@
         <v>1010</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D12" si="1">VLOOKUP(C4,$K$4:$M$7,2,FALSE)</f>
+        <f t="shared" ref="D4:D12" si="3">VLOOKUP(C4,$K$4:$M$7,2,FALSE)</f>
         <v>마우스</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E12" si="2">VLOOKUP(C4,$K$4:$M$7,3,FALSE)</f>
+        <f t="shared" ref="E4:E12" si="4">VLOOKUP(C4,$K$4:$M$7,3,FALSE)</f>
         <v>120</v>
       </c>
       <c r="F4" s="13">
@@ -1051,15 +1069,15 @@
         <v>3000</v>
       </c>
       <c r="G4" s="13">
-        <f>HLOOKUP(C4,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>HLOOKUP(G4,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>필기구</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I12" si="3">CHOOSE(LEFT(C4),"일반","특송")</f>
+        <f t="shared" ref="I4:I12" si="5">CHOOSE(LEFT(C4),"일반","특송")</f>
         <v>일반</v>
       </c>
       <c r="K4" s="1">
@@ -1074,7 +1092,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1084,11 +1102,11 @@
         <v>1001</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RAM</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F5" s="13">
@@ -1096,15 +1114,15 @@
         <v>3000</v>
       </c>
       <c r="G5" s="13">
-        <f>HLOOKUP(C5,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>65000</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>HLOOKUP(G5,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>영화할인권</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
       <c r="K5" s="1">
@@ -1119,7 +1137,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1129,11 +1147,11 @@
         <v>1011</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>키보드</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>870</v>
       </c>
       <c r="F6" s="13">
@@ -1141,15 +1159,15 @@
         <v>4200</v>
       </c>
       <c r="G6" s="13">
-        <f>HLOOKUP(C6,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>HLOOKUP(G6,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>머그컵</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
       <c r="K6" s="1">
@@ -1162,9 +1180,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1174,11 +1192,11 @@
         <v>1011</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>키보드</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>870</v>
       </c>
       <c r="F7" s="13">
@@ -1186,30 +1204,30 @@
         <v>4200</v>
       </c>
       <c r="G7" s="13">
-        <f>HLOOKUP(C7,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>HLOOKUP(G7,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>머그컵</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="32">
         <v>2010</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="34">
         <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -1219,11 +1237,11 @@
         <v>2010</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>외장하드</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="F8" s="13">
@@ -1231,21 +1249,21 @@
         <v>3500</v>
       </c>
       <c r="G8" s="13">
-        <f>HLOOKUP(C8,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>139000</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>HLOOKUP(G8,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>도서상품권</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>특송</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -1255,11 +1273,11 @@
         <v>1001</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RAM</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F9" s="13">
@@ -1267,28 +1285,28 @@
         <v>3000</v>
       </c>
       <c r="G9" s="13">
-        <f>HLOOKUP(C9,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>65000</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>HLOOKUP(G9,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>영화할인권</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="26">
         <v>3982</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -1298,11 +1316,11 @@
         <v>1010</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>마우스</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F10" s="13">
@@ -1310,15 +1328,15 @@
         <v>3000</v>
       </c>
       <c r="G10" s="13">
-        <f>HLOOKUP(C10,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>HLOOKUP(G10,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>필기구</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1333,7 +1351,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -1343,11 +1361,11 @@
         <v>2010</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>외장하드</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="F11" s="13">
@@ -1355,24 +1373,33 @@
         <v>3500</v>
       </c>
       <c r="G11" s="13">
-        <f>HLOOKUP(C11,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>139000</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>HLOOKUP(G11,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>도서상품권</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>특송</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="1" t="str">
+        <f>INDEX(검색범위,MATCH($M$9,배송번호목록,0),MATCH(K10,필드목록,0))</f>
+        <v>키보드</v>
+      </c>
+      <c r="L11" s="1">
+        <f>INDEX(검색범위,MATCH($M$9,배송번호목록,0),MATCH(L10,필드목록,0))</f>
+        <v>4200</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f>INDEX(검색범위,MATCH($M$9,배송번호목록,0),MATCH(M10,필드목록,0))</f>
+        <v>일반</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -1382,11 +1409,11 @@
         <v>1011</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>키보드</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>870</v>
       </c>
       <c r="F12" s="13">
@@ -1394,15 +1421,15 @@
         <v>4200</v>
       </c>
       <c r="G12" s="13">
-        <f>HLOOKUP(C12,단가표,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>HLOOKUP(G12,사은품,2)</f>
+        <f t="shared" si="1"/>
         <v>머그컵</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>일반</v>
       </c>
     </row>
@@ -1432,7 +1459,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H7"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1443,17 +1470,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1521,13 +1548,13 @@
       <c r="B5" s="14">
         <v>3800</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1592,7 +1619,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,12 +1632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
@@ -1645,8 +1672,14 @@
       <c r="D3" s="27">
         <v>67456</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="22">
+        <f>DSUM(데이터목록,C2,조건식)</f>
+        <v>2382</v>
+      </c>
+      <c r="G3" s="23">
+        <f>DAVERAGE(데이터목록,D2,조건식)</f>
+        <v>73203.399999999994</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
@@ -1675,10 +1708,10 @@
       <c r="D5" s="27">
         <v>49726</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
@@ -1693,8 +1726,12 @@
       <c r="D6" s="27">
         <v>4570</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
@@ -1709,8 +1746,12 @@
       <c r="D7" s="27">
         <v>68110</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
@@ -2329,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA934892-9F5E-4A7C-BCEE-0CB4259B432F}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2339,12 +2380,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2370,7 +2411,10 @@
       <c r="C3" s="7">
         <v>300000</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <f>FV(A3/12,B3,-C3)</f>
+        <v>3629849.00239276</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
@@ -2382,7 +2426,10 @@
       <c r="C4" s="7">
         <v>200000</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D5" si="0">FV(A4/12,B4,-C4)</f>
+        <v>4916776.3222249337</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
@@ -2394,15 +2441,18 @@
       <c r="C5" s="7">
         <v>100000</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>3767618.2131809029</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2428,7 +2478,10 @@
       <c r="C9" s="7">
         <v>10000000</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <f>PMT(A9/12,B9,-C9)</f>
+        <v>849490.04646259465</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
@@ -2440,7 +2493,10 @@
       <c r="C10" s="7">
         <v>10000000</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D11" si="1">PMT(A10/12,B10,-C10)</f>
+        <v>435362.80726939067</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
@@ -2452,7 +2508,10 @@
       <c r="C11" s="9">
         <v>10000000</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>300248.04149192671</v>
+      </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
